--- a/Semester 4/LA2/urok.xlsx
+++ b/Semester 4/LA2/urok.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University-Stuff\Semester 4\LA2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA4968A-457E-4206-B10B-684814F46CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EAE407C-CD09-4AB4-B8AC-6ED5C1798901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="4128" windowWidth="23040" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:AL47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,12 +576,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <f t="shared" ref="B9:B17" si="1">AL10</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL10" s="3">
         <v>3</v>
@@ -592,12 +591,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL11" s="3">
         <v>3</v>
@@ -608,12 +606,11 @@
         <v>12</v>
       </c>
       <c r="B12" s="3">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="AL12" s="3">
         <v>5</v>
@@ -624,12 +621,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="3">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
         <v>4</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="AL13" s="3">
         <v>4</v>
@@ -640,12 +636,11 @@
         <v>14</v>
       </c>
       <c r="B14" s="3">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
         <v>5</v>
-      </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="AL14" s="3">
         <v>5</v>
@@ -656,12 +651,11 @@
         <v>15</v>
       </c>
       <c r="B15" s="3">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
         <v>6</v>
-      </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="AL15" s="3">
         <v>6</v>
@@ -672,7 +666,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B10:B17" si="1">AL16</f>
         <v>3</v>
       </c>
       <c r="C16" s="2">
@@ -688,12 +682,11 @@
         <v>20</v>
       </c>
       <c r="B17" s="3">
-        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
         <v>4</v>
-      </c>
-      <c r="C17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
       </c>
       <c r="AL17" s="3">
         <v>4</v>
@@ -703,11 +696,11 @@
       <c r="A18"/>
       <c r="B18" s="4">
         <f>SUM(B2:B17)</f>
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C18" s="4">
         <f>SUM(C2:C17)</f>
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.3">
@@ -807,11 +800,11 @@
       <c r="A27"/>
       <c r="B27" s="4">
         <f>SUM(B2:B17)+SUM(B20:B24)</f>
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="C27" s="4">
         <f>SUM(C2:C17)+SUM(C20:C24)</f>
-        <v>31</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
